--- a/design/Npc.xlsx
+++ b/design/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC549B6-B529-4353-A62A-FD69E592A1FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53398074-3D08-4287-BE61-430BA7FFAC35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>(2,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Map</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +489,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -522,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
